--- a/nr-prepare-release-1.1.0/ig/StructureDefinition-as-dr-practitionerrole.xlsx
+++ b/nr-prepare-release-1.1.0/ig/StructureDefinition-as-dr-practitionerrole.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0-snapshot-4</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T09:58:26+00:00</t>
+    <t>2024-11-13T10:02:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-prepare-release-1.1.0/ig/StructureDefinition-as-dr-practitionerrole.xlsx
+++ b/nr-prepare-release-1.1.0/ig/StructureDefinition-as-dr-practitionerrole.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="504">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T10:02:18+00:00</t>
+    <t>2024-11-13T13:22:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -761,11 +761,11 @@
     <t>Often, specific identities are assigned for the agent.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:system}
+    <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
-    <t>Slice based on the identifier.system pattern</t>
+    <t>Slice based on the identifier.system value</t>
   </si>
   <si>
     <t>PRD-7 (or XCN.1)</t>
@@ -1201,10 +1201,6 @@
   </si>
   <si>
     <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-role-exercice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:$this}
-</t>
   </si>
   <si>
     <t>PRD-1 / STF-18  / PRA-3  / PRT-4  / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17</t>
@@ -8125,7 +8121,7 @@
         <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>382</v>
+        <v>148</v>
       </c>
       <c r="AC53" s="2"/>
       <c r="AD53" t="s" s="2">
@@ -8153,10 +8149,10 @@
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>343</v>
@@ -8167,13 +8163,13 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>376</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>78</v>
@@ -8198,7 +8194,7 @@
         <v>264</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>378</v>
@@ -8236,7 +8232,7 @@
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>78</v>
@@ -8269,13 +8265,13 @@
         <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>343</v>
@@ -8286,13 +8282,13 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>376</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>78</v>
@@ -8317,7 +8313,7 @@
         <v>264</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>378</v>
@@ -8355,7 +8351,7 @@
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
@@ -8388,13 +8384,13 @@
         <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>343</v>
@@ -8405,13 +8401,13 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>376</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>78</v>
@@ -8436,7 +8432,7 @@
         <v>264</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>378</v>
@@ -8474,7 +8470,7 @@
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>78</v>
@@ -8507,13 +8503,13 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>343</v>
@@ -8524,13 +8520,13 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>376</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>78</v>
@@ -8555,7 +8551,7 @@
         <v>264</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>378</v>
@@ -8593,7 +8589,7 @@
       </c>
       <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
@@ -8626,13 +8622,13 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>343</v>
@@ -8643,13 +8639,13 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>376</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>78</v>
@@ -8674,7 +8670,7 @@
         <v>264</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>378</v>
@@ -8712,7 +8708,7 @@
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>78</v>
@@ -8745,13 +8741,13 @@
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>343</v>
@@ -8762,13 +8758,13 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>376</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>78</v>
@@ -8793,7 +8789,7 @@
         <v>264</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>378</v>
@@ -8831,7 +8827,7 @@
       </c>
       <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -8864,13 +8860,13 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>343</v>
@@ -8881,13 +8877,13 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>376</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>78</v>
@@ -8912,7 +8908,7 @@
         <v>264</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>378</v>
@@ -8950,7 +8946,7 @@
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
@@ -8983,13 +8979,13 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>343</v>
@@ -9000,10 +8996,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9029,10 +9025,10 @@
         <v>264</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9063,7 +9059,7 @@
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
@@ -9081,7 +9077,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9099,13 +9095,13 @@
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AN61" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>78</v>
@@ -9113,10 +9109,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9139,13 +9135,13 @@
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9196,7 +9192,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9217,21 +9213,21 @@
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>433</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9254,13 +9250,13 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9311,7 +9307,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9329,10 +9325,10 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9343,10 +9339,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9369,17 +9365,17 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9416,7 +9412,7 @@
         <v>78</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s" s="2">
@@ -9426,7 +9422,7 @@
         <v>117</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9438,19 +9434,19 @@
         <v>212</v>
       </c>
       <c r="AJ64" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="AK64" t="s" s="2">
+      <c r="AL64" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>78</v>
@@ -9458,13 +9454,13 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C65" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>78</v>
@@ -9486,17 +9482,17 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>454</v>
-      </c>
       <c r="M65" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -9545,7 +9541,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9557,19 +9553,19 @@
         <v>212</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>78</v>
@@ -9577,10 +9573,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9603,16 +9599,16 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9662,7 +9658,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9683,7 +9679,7 @@
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9694,10 +9690,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9809,10 +9805,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9926,14 +9922,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9955,10 +9951,10 @@
         <v>111</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>114</v>
@@ -10013,7 +10009,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10045,10 +10041,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10074,10 +10070,10 @@
         <v>179</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10107,11 +10103,11 @@
         <v>257</v>
       </c>
       <c r="Y70" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Z70" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="Z70" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="AA70" t="s" s="2">
         <v>78</v>
       </c>
@@ -10128,7 +10124,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10149,7 +10145,7 @@
         <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10160,10 +10156,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10189,10 +10185,10 @@
         <v>328</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10243,7 +10239,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10264,7 +10260,7 @@
         <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10275,10 +10271,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10301,16 +10297,16 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10360,7 +10356,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10381,7 +10377,7 @@
         <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10392,10 +10388,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10418,16 +10414,16 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="M73" t="s" s="2">
-        <v>484</v>
-      </c>
       <c r="N73" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10477,7 +10473,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10498,7 +10494,7 @@
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10509,10 +10505,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10535,13 +10531,13 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10592,7 +10588,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10613,7 +10609,7 @@
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10624,10 +10620,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10739,10 +10735,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10856,14 +10852,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -10885,10 +10881,10 @@
         <v>111</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>114</v>
@@ -10943,7 +10939,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -10975,10 +10971,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11004,10 +11000,10 @@
         <v>104</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11058,7 +11054,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>90</v>
@@ -11090,10 +11086,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11119,10 +11115,10 @@
         <v>297</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11173,7 +11169,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11194,7 +11190,7 @@
         <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11205,10 +11201,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11234,10 +11230,10 @@
         <v>104</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11288,7 +11284,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11309,7 +11305,7 @@
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11320,10 +11316,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11346,17 +11342,17 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>78</v>
@@ -11405,7 +11401,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
